--- a/simulation_data/one_step_algorithm/1s_error_level_9_percent_water_40.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_9_percent_water_40.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.08742090581796</v>
+        <v>89.75810455181281</v>
       </c>
       <c r="D2" t="n">
-        <v>2.185858691398118</v>
+        <v>2.066402764096956</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.80812332986311</v>
+        <v>89.08436191533632</v>
       </c>
       <c r="D3" t="n">
-        <v>2.090184068777791</v>
+        <v>2.020713286598467</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.97173607623148</v>
+        <v>87.5226779843279</v>
       </c>
       <c r="D4" t="n">
-        <v>2.173465342262674</v>
+        <v>2.135285068565517</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.9026884611885</v>
+        <v>86.55142653164629</v>
       </c>
       <c r="D5" t="n">
-        <v>2.087167970030181</v>
+        <v>2.274918311027926</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.8899440780135</v>
+        <v>85.90008792939993</v>
       </c>
       <c r="D6" t="n">
-        <v>2.334813642970412</v>
+        <v>2.13106736375815</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.20740270690183</v>
+        <v>85.05834334926509</v>
       </c>
       <c r="D7" t="n">
-        <v>2.413004213104551</v>
+        <v>2.051786694406768</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.03114862450632</v>
+        <v>83.97244012696767</v>
       </c>
       <c r="D8" t="n">
-        <v>2.247578686540036</v>
+        <v>2.337185945956294</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.98299677668733</v>
+        <v>82.64336342752964</v>
       </c>
       <c r="D9" t="n">
-        <v>1.946459043787606</v>
+        <v>2.42256248584332</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.976554736434</v>
+        <v>81.82427386467089</v>
       </c>
       <c r="D10" t="n">
-        <v>2.134386113703057</v>
+        <v>2.332665047241309</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.64422606852628</v>
+        <v>81.34557740751426</v>
       </c>
       <c r="D11" t="n">
-        <v>2.26838384370476</v>
+        <v>2.197137493923629</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.7486718977087</v>
+        <v>80.10288193880615</v>
       </c>
       <c r="D12" t="n">
-        <v>2.216302041356264</v>
+        <v>2.14530953978548</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.96240304184361</v>
+        <v>79.1132264996733</v>
       </c>
       <c r="D13" t="n">
-        <v>2.333746880754184</v>
+        <v>2.020423259090847</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.94957011449208</v>
+        <v>77.57803547881117</v>
       </c>
       <c r="D14" t="n">
-        <v>2.36901145620187</v>
+        <v>2.601644943144273</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.17662537518085</v>
+        <v>77.30092874</v>
       </c>
       <c r="D15" t="n">
-        <v>2.103833598997592</v>
+        <v>2.330377805193084</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.65185838514532</v>
+        <v>76.13447857291006</v>
       </c>
       <c r="D16" t="n">
-        <v>2.476926042842384</v>
+        <v>2.70184990386024</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.13977120762657</v>
+        <v>74.74807791881733</v>
       </c>
       <c r="D17" t="n">
-        <v>2.378625476591483</v>
+        <v>2.807793393452626</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.95706641429416</v>
+        <v>73.96230120384922</v>
       </c>
       <c r="D18" t="n">
-        <v>2.545928075169794</v>
+        <v>2.917105925132382</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.92527599853112</v>
+        <v>72.89122531633322</v>
       </c>
       <c r="D19" t="n">
-        <v>2.630347434998943</v>
+        <v>2.484627340338024</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.47745738948397</v>
+        <v>71.87899803464443</v>
       </c>
       <c r="D20" t="n">
-        <v>2.505450056442871</v>
+        <v>2.687250554520686</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.86385077552511</v>
+        <v>71.25428791949108</v>
       </c>
       <c r="D21" t="n">
-        <v>2.404223393737223</v>
+        <v>2.622350866335308</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.39903870126399</v>
+        <v>70.27342407908357</v>
       </c>
       <c r="D22" t="n">
-        <v>2.755061998579384</v>
+        <v>2.447703544519135</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.61662265818011</v>
+        <v>69.00186553115438</v>
       </c>
       <c r="D23" t="n">
-        <v>2.693565392735791</v>
+        <v>2.554159117329544</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.449646221067</v>
+        <v>68.14982578885089</v>
       </c>
       <c r="D24" t="n">
-        <v>2.324656978414238</v>
+        <v>2.815937803892007</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.03649197605112</v>
+        <v>66.3285992349454</v>
       </c>
       <c r="D25" t="n">
-        <v>2.825003789264648</v>
+        <v>2.588405046056052</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.80574776995688</v>
+        <v>66.06495971929066</v>
       </c>
       <c r="D26" t="n">
-        <v>2.798137315362149</v>
+        <v>2.385463976580433</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.89732579404192</v>
+        <v>64.83993076616181</v>
       </c>
       <c r="D27" t="n">
-        <v>2.767424808205813</v>
+        <v>2.350452495391482</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.73361531478743</v>
+        <v>63.82985337205088</v>
       </c>
       <c r="D28" t="n">
-        <v>3.024587189394089</v>
+        <v>2.772997957851473</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.84101647774989</v>
+        <v>62.96306792592885</v>
       </c>
       <c r="D29" t="n">
-        <v>2.845414440828439</v>
+        <v>2.602298209605918</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.46913138868381</v>
+        <v>62.00626268459828</v>
       </c>
       <c r="D30" t="n">
-        <v>2.827786134427431</v>
+        <v>2.74568933168226</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.53944416280061</v>
+        <v>60.25751427579407</v>
       </c>
       <c r="D31" t="n">
-        <v>2.861956058468203</v>
+        <v>2.350543136661732</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.17124514028669</v>
+        <v>60.42939900990621</v>
       </c>
       <c r="D32" t="n">
-        <v>3.010716545524361</v>
+        <v>2.851059876146407</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.08203191137785</v>
+        <v>58.96872147159444</v>
       </c>
       <c r="D33" t="n">
-        <v>2.894759840653238</v>
+        <v>3.038611541496694</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.15056623110324</v>
+        <v>57.74942152488376</v>
       </c>
       <c r="D34" t="n">
-        <v>2.7643623277397</v>
+        <v>2.688906945556691</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.08479240863672</v>
+        <v>57.40263456097309</v>
       </c>
       <c r="D35" t="n">
-        <v>3.212676388272556</v>
+        <v>2.986639461576851</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.07021661065578</v>
+        <v>56.23648085332008</v>
       </c>
       <c r="D36" t="n">
-        <v>2.939760246405807</v>
+        <v>3.039023754154544</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.1259671794227</v>
+        <v>55.24301757392254</v>
       </c>
       <c r="D37" t="n">
-        <v>3.058052346205239</v>
+        <v>2.920983244604006</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.83553872201293</v>
+        <v>53.87696684661336</v>
       </c>
       <c r="D38" t="n">
-        <v>3.216786701696953</v>
+        <v>2.900472027503023</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.50638707736037</v>
+        <v>53.20527934457269</v>
       </c>
       <c r="D39" t="n">
-        <v>2.940542259317725</v>
+        <v>2.81535625578711</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.34207898772652</v>
+        <v>51.99716176475587</v>
       </c>
       <c r="D40" t="n">
-        <v>2.936581286855366</v>
+        <v>3.05828664922631</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.14357905950181</v>
+        <v>50.96838919217825</v>
       </c>
       <c r="D41" t="n">
-        <v>3.320459928406075</v>
+        <v>2.887745714397957</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.16013859721065</v>
+        <v>49.87884133422563</v>
       </c>
       <c r="D42" t="n">
-        <v>3.032375531404846</v>
+        <v>3.358300380293577</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.84110008437476</v>
+        <v>48.97338830708722</v>
       </c>
       <c r="D43" t="n">
-        <v>3.401514963526539</v>
+        <v>2.818618675025725</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.84467852989993</v>
+        <v>48.13877465632017</v>
       </c>
       <c r="D44" t="n">
-        <v>2.966399466593136</v>
+        <v>3.09867643719461</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.19449425179464</v>
+        <v>47.12469505796945</v>
       </c>
       <c r="D45" t="n">
-        <v>3.041450584483091</v>
+        <v>3.410111488782978</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.32176069407497</v>
+        <v>46.15845521641673</v>
       </c>
       <c r="D46" t="n">
-        <v>3.064049330571593</v>
+        <v>2.990388871287625</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.16139767524062</v>
+        <v>45.08523722621657</v>
       </c>
       <c r="D47" t="n">
-        <v>3.186451990508731</v>
+        <v>2.962354724563768</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.06128833927099</v>
+        <v>43.98497776988541</v>
       </c>
       <c r="D48" t="n">
-        <v>2.723525672457604</v>
+        <v>3.123632166942184</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.35054677489961</v>
+        <v>41.72296333877009</v>
       </c>
       <c r="D49" t="n">
-        <v>3.10873362378892</v>
+        <v>3.328697407471263</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.89524440759408</v>
+        <v>41.92899034075461</v>
       </c>
       <c r="D50" t="n">
-        <v>2.893316622263395</v>
+        <v>3.203514808979719</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.15042649438535</v>
+        <v>41.55365966520049</v>
       </c>
       <c r="D51" t="n">
-        <v>2.699663122333892</v>
+        <v>3.511224949519514</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.12610824053667</v>
+        <v>39.88640039425909</v>
       </c>
       <c r="D52" t="n">
-        <v>3.710311679193359</v>
+        <v>3.092743716848322</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.49771674662424</v>
+        <v>38.29384361950822</v>
       </c>
       <c r="D53" t="n">
-        <v>3.05548311501309</v>
+        <v>3.432554094700745</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.03058188433437</v>
+        <v>37.860875117732</v>
       </c>
       <c r="D54" t="n">
-        <v>3.460579114755633</v>
+        <v>3.247313626206513</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.84375889647085</v>
+        <v>37.32071855520692</v>
       </c>
       <c r="D55" t="n">
-        <v>3.651425457777937</v>
+        <v>2.828532831328404</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.00110622840388</v>
+        <v>36.31104569555108</v>
       </c>
       <c r="D56" t="n">
-        <v>3.242494673630325</v>
+        <v>3.155929133438733</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.99032219303984</v>
+        <v>34.92280669739716</v>
       </c>
       <c r="D57" t="n">
-        <v>3.350184218894552</v>
+        <v>3.121299796893697</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.92189075795569</v>
+        <v>33.96720838306673</v>
       </c>
       <c r="D58" t="n">
-        <v>3.554473583465799</v>
+        <v>3.385518224343484</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.22467892857749</v>
+        <v>32.85155415056592</v>
       </c>
       <c r="D59" t="n">
-        <v>3.612677222698402</v>
+        <v>3.290713097708266</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.06642105599286</v>
+        <v>32.12307669243117</v>
       </c>
       <c r="D60" t="n">
-        <v>2.838337916044974</v>
+        <v>3.060647626455031</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.28398260181695</v>
+        <v>30.90421071594052</v>
       </c>
       <c r="D61" t="n">
-        <v>3.492968741185866</v>
+        <v>3.469413790197365</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.13610829470445</v>
+        <v>29.70189666441221</v>
       </c>
       <c r="D62" t="n">
-        <v>3.38809719520003</v>
+        <v>3.428185467790307</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.62832167419293</v>
+        <v>28.62932786781899</v>
       </c>
       <c r="D63" t="n">
-        <v>3.012000079354945</v>
+        <v>3.409373248146603</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.53323857927604</v>
+        <v>28.12970007037918</v>
       </c>
       <c r="D64" t="n">
-        <v>3.535058929859868</v>
+        <v>3.237424385397961</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.05720655516386</v>
+        <v>27.54880516503114</v>
       </c>
       <c r="D65" t="n">
-        <v>3.45768358519046</v>
+        <v>3.524573257773252</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.87053302185145</v>
+        <v>25.76594803241463</v>
       </c>
       <c r="D66" t="n">
-        <v>3.817530317532435</v>
+        <v>3.8318484507233</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.05572970215649</v>
+        <v>24.85282481423512</v>
       </c>
       <c r="D67" t="n">
-        <v>3.697643604391074</v>
+        <v>3.519101153382739</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.17109209569714</v>
+        <v>24.56747208882873</v>
       </c>
       <c r="D68" t="n">
-        <v>3.828025071439498</v>
+        <v>3.356918281404167</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.09992027340799</v>
+        <v>23.12555246429899</v>
       </c>
       <c r="D69" t="n">
-        <v>3.893172545947874</v>
+        <v>3.876507085357648</v>
       </c>
     </row>
   </sheetData>
